--- a/data/elections/not_imputed/Congressional Elections (2008).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2008).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAC3013-D9B4-0045-B34A-605C60AFBA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C46932A-E2F5-DB43-8DBD-3652AF8DD5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>Alabama</t>
   </si>
@@ -751,13 +748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:G1048576"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -775,50 +772,50 @@
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="9">
         <v>718367</v>
@@ -847,15 +844,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2008</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="9">
         <v>142560</v>
@@ -884,15 +881,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="9">
         <v>1055305</v>
@@ -921,15 +918,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2008</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="9">
         <v>415481</v>
@@ -958,15 +955,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2008</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="9">
         <v>7380825</v>
@@ -995,15 +992,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2008</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="9">
         <v>1259723</v>
@@ -1032,15 +1029,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2008</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="9">
         <v>908761</v>
@@ -1069,15 +1066,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2008</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="9">
         <v>146434</v>
@@ -1106,15 +1103,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2008</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="9">
         <v>3434831</v>
@@ -1142,19 +1139,16 @@
       <c r="K10">
         <v>25</v>
       </c>
-      <c r="L10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2008</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="9">
         <v>1858090</v>
@@ -1183,15 +1177,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2008</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="9">
         <v>319956</v>
@@ -1220,15 +1214,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2008</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="9">
         <v>259776</v>
@@ -1257,15 +1251,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2008</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="9">
         <v>3176203</v>
@@ -1294,15 +1288,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2008</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
       <c r="D15" s="9">
         <v>1388963</v>
@@ -1331,15 +1325,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2008</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="9">
         <v>759460</v>
@@ -1373,10 +1367,10 @@
         <v>2008</v>
       </c>
       <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
       </c>
       <c r="D17" s="9">
         <v>470031</v>
@@ -1410,10 +1404,10 @@
         <v>2008</v>
       </c>
       <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
       <c r="D18" s="9">
         <v>761209</v>
@@ -1447,10 +1441,10 @@
         <v>2008</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="D19" s="9">
         <v>398474</v>
@@ -1484,10 +1478,10 @@
         <v>2008</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
       <c r="D20" s="9">
         <v>431903</v>
@@ -1521,10 +1515,10 @@
         <v>2008</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
       <c r="D21" s="9">
         <v>1677490</v>
@@ -1558,10 +1552,10 @@
         <v>2008</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
       </c>
       <c r="D22" s="9">
         <v>2245778</v>
@@ -1595,10 +1589,10 @@
         <v>2008</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>44</v>
       </c>
       <c r="D23" s="9">
         <v>2516640</v>
@@ -1632,10 +1626,10 @@
         <v>2008</v>
       </c>
       <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
       <c r="D24" s="9">
         <v>1612480</v>
@@ -1669,10 +1663,10 @@
         <v>2008</v>
       </c>
       <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
         <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
       </c>
       <c r="D25" s="9">
         <v>731805</v>
@@ -1706,10 +1700,10 @@
         <v>2008</v>
       </c>
       <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
         <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
       </c>
       <c r="D26" s="9">
         <v>1413016</v>
@@ -1743,10 +1737,10 @@
         <v>2008</v>
       </c>
       <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
       </c>
       <c r="D27" s="9">
         <v>155930</v>
@@ -1780,10 +1774,10 @@
         <v>2008</v>
       </c>
       <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
         <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="9">
         <v>264885</v>
@@ -1817,10 +1811,10 @@
         <v>2008</v>
       </c>
       <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
         <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
       </c>
       <c r="D29" s="9">
         <v>457320</v>
@@ -1854,10 +1848,10 @@
         <v>2008</v>
       </c>
       <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
         <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
       </c>
       <c r="D30" s="9">
         <v>364767</v>
@@ -1891,10 +1885,10 @@
         <v>2008</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
       <c r="D31" s="9">
         <v>1911827</v>
@@ -1928,10 +1922,10 @@
         <v>2008</v>
       </c>
       <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
         <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>62</v>
       </c>
       <c r="D32" s="9">
         <v>457135</v>
@@ -1965,10 +1959,10 @@
         <v>2008</v>
       </c>
       <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
       </c>
       <c r="D33" s="9">
         <v>4006436</v>
@@ -2002,10 +1996,10 @@
         <v>2008</v>
       </c>
       <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
       </c>
       <c r="D34" s="9">
         <v>2293971</v>
@@ -2039,10 +2033,10 @@
         <v>2008</v>
       </c>
       <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
         <v>67</v>
-      </c>
-      <c r="C35" t="s">
-        <v>68</v>
       </c>
       <c r="D35" s="9">
         <v>194577</v>
@@ -2076,10 +2070,10 @@
         <v>2008</v>
       </c>
       <c r="B36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
       <c r="D36" s="9">
         <v>2752111</v>
@@ -2113,10 +2107,10 @@
         <v>2008</v>
       </c>
       <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
         <v>71</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
       </c>
       <c r="D37" s="9">
         <v>503614</v>
@@ -2150,10 +2144,10 @@
         <v>2008</v>
       </c>
       <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
         <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
       </c>
       <c r="D38" s="9">
         <v>1036171</v>
@@ -2187,10 +2181,10 @@
         <v>2008</v>
       </c>
       <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
       </c>
       <c r="D39" s="9">
         <v>3209168</v>
@@ -2224,10 +2218,10 @@
         <v>2008</v>
       </c>
       <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
       </c>
       <c r="D40" s="9">
         <v>303670</v>
@@ -2261,10 +2255,10 @@
         <v>2008</v>
       </c>
       <c r="B41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>80</v>
       </c>
       <c r="D41" s="9">
         <v>919529</v>
@@ -2298,10 +2292,10 @@
         <v>2008</v>
       </c>
       <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
       </c>
       <c r="D42" s="9">
         <v>256041</v>
@@ -2335,10 +2329,10 @@
         <v>2008</v>
       </c>
       <c r="B43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
       <c r="D43" s="9">
         <v>1195542</v>
@@ -2372,10 +2366,10 @@
         <v>2008</v>
       </c>
       <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>85</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
       </c>
       <c r="D44" s="9">
         <v>2979398</v>
@@ -2409,10 +2403,10 @@
         <v>2008</v>
       </c>
       <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
         <v>87</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
       </c>
       <c r="D45" s="9">
         <v>393761</v>
@@ -2446,10 +2440,10 @@
         <v>2008</v>
       </c>
       <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
       </c>
       <c r="D46" s="9">
         <v>248203</v>
@@ -2483,10 +2477,10 @@
         <v>2008</v>
       </c>
       <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
       </c>
       <c r="D47" s="9">
         <v>1852788</v>
@@ -2520,10 +2514,10 @@
         <v>2008</v>
       </c>
       <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
       </c>
       <c r="D48" s="9">
         <v>1725316</v>
@@ -2557,10 +2551,10 @@
         <v>2008</v>
       </c>
       <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="9">
         <v>432075</v>
@@ -2594,10 +2588,10 @@
         <v>2008</v>
       </c>
       <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
       </c>
       <c r="D50" s="9">
         <v>1383536</v>
@@ -2631,10 +2625,10 @@
         <v>2008</v>
       </c>
       <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
       </c>
       <c r="D51" s="9">
         <v>106758</v>

--- a/data/elections/not_imputed/Congressional Elections (2008).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2008).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C46932A-E2F5-DB43-8DBD-3652AF8DD5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4BBE5D-F43D-D14C-819D-96DB76EAF25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="8960" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
@@ -380,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -405,14 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -455,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -464,7 +456,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -754,7 +745,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:M1048576"/>
+      <selection pane="bottomRight" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,10 +753,10 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -783,22 +774,22 @@
         <v>102</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>109</v>
@@ -817,17 +808,17 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>718367</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>1120903</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <f t="shared" ref="F2:F33" si="0">G2-D2-E2</f>
         <v>15998</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>1855268</v>
       </c>
       <c r="H2">
@@ -854,17 +845,17 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>142560</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>158939</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <f t="shared" si="0"/>
         <v>15479</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>316978</v>
       </c>
       <c r="H3">
@@ -891,17 +882,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1055305</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>1021798</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f t="shared" si="0"/>
         <v>78591</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>2155694</v>
       </c>
       <c r="H4">
@@ -928,17 +919,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>415481</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>215196</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>156516</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>787193</v>
       </c>
       <c r="H5">
@@ -965,17 +956,17 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>7380825</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>4515925</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f t="shared" si="0"/>
         <v>425329</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>12322079</v>
       </c>
       <c r="H6">
@@ -1002,17 +993,17 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1259723</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>990836</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <f t="shared" si="0"/>
         <v>33287</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>2283846</v>
       </c>
       <c r="H7">
@@ -1039,17 +1030,17 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>908761</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>504785</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>113853</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>1527399</v>
       </c>
       <c r="H8">
@@ -1076,17 +1067,17 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>146434</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>235437</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>3586</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>385457</v>
       </c>
       <c r="H9">
@@ -1113,17 +1104,17 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3434831</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>3792167</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" si="0"/>
         <v>194174</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>7421172</v>
       </c>
       <c r="H10">
@@ -1150,17 +1141,17 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>1858090</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>1796549</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>3654948</v>
       </c>
       <c r="H11">
@@ -1187,17 +1178,17 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>319956</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>82540</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>53568</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>456064</v>
       </c>
       <c r="H12">
@@ -1224,17 +1215,17 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>259776</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>377464</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>637852</v>
       </c>
       <c r="H13">
@@ -1261,17 +1252,17 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>3176203</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>1961173</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>110819</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>5248195</v>
       </c>
       <c r="H14">
@@ -1298,17 +1289,17 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>1388963</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>1240581</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>47306</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>2676850</v>
       </c>
       <c r="H15">
@@ -1335,17 +1326,17 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>759460</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>698241</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>24106</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>1481807</v>
       </c>
       <c r="H16">
@@ -1372,17 +1363,17 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>470031</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>690005</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="0"/>
         <v>48266</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>1208302</v>
       </c>
       <c r="H17">
@@ -1409,17 +1400,17 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>761209</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>955182</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>33449</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>1749840</v>
       </c>
       <c r="H18">
@@ -1446,17 +1437,17 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>398474</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>594306</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>53396</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1046176</v>
       </c>
       <c r="H19">
@@ -1483,17 +1474,17 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>431903</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>278198</v>
       </c>
-      <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
         <v>710101</v>
       </c>
       <c r="H20">
@@ -1520,17 +1511,17 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>1677490</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>762587</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>57875</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>2497952</v>
       </c>
       <c r="H21">
@@ -1557,17 +1548,17 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>2245778</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>318461</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="0"/>
         <v>538756</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>3102995</v>
       </c>
       <c r="H22">
@@ -1594,17 +1585,17 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>2516640</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>2114293</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="0"/>
         <v>179757</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>4810690</v>
       </c>
       <c r="H23">
@@ -1631,17 +1622,17 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>1612480</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>1069015</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
         <v>121119</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>2802614</v>
       </c>
       <c r="H24">
@@ -1668,17 +1659,17 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>731805</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>527330</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="0"/>
         <v>5612</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>1264747</v>
       </c>
       <c r="H25">
@@ -1705,17 +1696,17 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>1413016</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>1313018</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>95450</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>2821484</v>
       </c>
       <c r="H26">
@@ -1742,17 +1733,17 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>155930</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>308470</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>480900</v>
       </c>
       <c r="H27">
@@ -1779,17 +1770,17 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="8">
         <v>264885</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>510513</v>
       </c>
-      <c r="F28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
         <v>775398</v>
       </c>
       <c r="H28">
@@ -1816,17 +1807,17 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="8">
         <v>457320</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>383548</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <f t="shared" si="0"/>
         <v>67386</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>908254</v>
       </c>
       <c r="H29">
@@ -1853,17 +1844,17 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="8">
         <v>364767</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>294560</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f t="shared" si="0"/>
         <v>15221</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>674548</v>
       </c>
       <c r="H30">
@@ -1890,17 +1881,17 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="8">
         <v>1911827</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>1461820</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f t="shared" si="0"/>
         <v>64333</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>3437980</v>
       </c>
       <c r="H31">
@@ -1927,17 +1918,17 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="8">
         <v>457135</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>321083</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <f t="shared" si="0"/>
         <v>36348</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>814566</v>
       </c>
       <c r="H32">
@@ -1964,17 +1955,17 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="8">
         <v>4006436</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>1800093</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <f t="shared" si="0"/>
         <v>1914974</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>7721503</v>
       </c>
       <c r="H33">
@@ -2001,17 +1992,17 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="8">
         <v>2293971</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>1901517</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <f t="shared" ref="F34:F51" si="2">G34-D34-E34</f>
         <v>19605</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>4215093</v>
       </c>
       <c r="H34">
@@ -2038,17 +2029,17 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="8">
         <v>194577</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>119388</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>313965</v>
       </c>
       <c r="H35">
@@ -2075,17 +2066,17 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="8">
         <v>2752111</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>2491498</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <f t="shared" si="2"/>
         <v>130731</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>5374340</v>
       </c>
       <c r="H36">
@@ -2112,17 +2103,17 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="8">
         <v>503614</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>802530</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <f t="shared" si="2"/>
         <v>30783</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>1336927</v>
       </c>
       <c r="H37">
@@ -2149,17 +2140,17 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="8">
         <v>1036171</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>435920</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <f t="shared" si="2"/>
         <v>210418</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>1682509</v>
       </c>
       <c r="H38">
@@ -2186,17 +2177,17 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="8">
         <v>3209168</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>2520755</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <f t="shared" si="2"/>
         <v>57931</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>5787854</v>
       </c>
       <c r="H39">
@@ -2223,17 +2214,17 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="8">
         <v>303670</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>118773</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <f t="shared" si="2"/>
         <v>15789</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>438232</v>
       </c>
       <c r="H40">
@@ -2260,17 +2251,17 @@
       <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="8">
         <v>919529</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="9">
         <v>939703</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <f t="shared" si="2"/>
         <v>14658</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>1873890</v>
       </c>
       <c r="H41">
@@ -2297,17 +2288,17 @@
       <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="8">
         <v>256041</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>122966</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>379007</v>
       </c>
       <c r="H42">
@@ -2334,17 +2325,17 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="8">
         <v>1195542</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>977677</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <f t="shared" si="2"/>
         <v>128666</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>2301885</v>
       </c>
       <c r="H43">
@@ -2371,17 +2362,17 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="8">
         <v>2979398</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>4203917</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <f t="shared" si="2"/>
         <v>345307</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>7528622</v>
       </c>
       <c r="H44">
@@ -2408,17 +2399,17 @@
       <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="8">
         <v>393761</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>503917</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <f t="shared" si="2"/>
         <v>39161</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>936839</v>
       </c>
       <c r="H45">
@@ -2445,17 +2436,17 @@
       <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="8">
         <v>248203</v>
       </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10">
         <f t="shared" si="2"/>
         <v>49948</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>298151</v>
       </c>
       <c r="H46">
@@ -2482,17 +2473,17 @@
       <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="8">
         <v>1852788</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="9">
         <v>1590687</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <f t="shared" si="2"/>
         <v>51880</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>3495355</v>
       </c>
       <c r="H47">
@@ -2519,17 +2510,17 @@
       <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="8">
         <v>1725316</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>1189147</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>2914463</v>
       </c>
       <c r="H48">
@@ -2556,17 +2547,17 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>432075</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>213339</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>645560</v>
       </c>
       <c r="H49">
@@ -2593,17 +2584,17 @@
       <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="8">
         <v>1383536</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>1274987</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <f t="shared" si="2"/>
         <v>116651</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>2775174</v>
       </c>
       <c r="H50">
@@ -2630,17 +2621,17 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="8">
         <v>106758</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>131244</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <f t="shared" si="2"/>
         <v>11573</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>249575</v>
       </c>
       <c r="H51">

--- a/data/elections/not_imputed/Congressional Elections (2008).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2008).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4BBE5D-F43D-D14C-819D-96DB76EAF25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051419B6-47D1-E443-A182-CC1A8014DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="8960" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13620" yWindow="5760" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
@@ -380,16 +380,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -447,18 +439,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,18 +744,18 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -773,16 +764,16 @@
       <c r="C1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -808,17 +799,17 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>718367</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>1120903</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <f t="shared" ref="F2:F33" si="0">G2-D2-E2</f>
         <v>15998</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1855268</v>
       </c>
       <c r="H2">
@@ -845,17 +836,17 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>142560</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>158939</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
         <v>15479</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>316978</v>
       </c>
       <c r="H3">
@@ -882,17 +873,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1055305</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1021798</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>78591</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>2155694</v>
       </c>
       <c r="H4">
@@ -919,17 +910,17 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>415481</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>215196</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>156516</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>787193</v>
       </c>
       <c r="H5">
@@ -956,17 +947,17 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>7380825</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>4515925</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>425329</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>12322079</v>
       </c>
       <c r="H6">
@@ -993,17 +984,17 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>1259723</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>990836</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>33287</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>2283846</v>
       </c>
       <c r="H7">
@@ -1030,17 +1021,17 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>908761</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>504785</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>113853</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>1527399</v>
       </c>
       <c r="H8">
@@ -1067,17 +1058,17 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>146434</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>235437</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>3586</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>385457</v>
       </c>
       <c r="H9">
@@ -1104,17 +1095,17 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>3434831</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>3792167</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>194174</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>7421172</v>
       </c>
       <c r="H10">
@@ -1141,17 +1132,17 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>1858090</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>1796549</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>3654948</v>
       </c>
       <c r="H11">
@@ -1178,17 +1169,17 @@
       <c r="C12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>319956</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>82540</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>53568</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>456064</v>
       </c>
       <c r="H12">
@@ -1215,17 +1206,17 @@
       <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>259776</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>377464</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>637852</v>
       </c>
       <c r="H13">
@@ -1252,17 +1243,17 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>3176203</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>1961173</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>110819</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <v>5248195</v>
       </c>
       <c r="H14">
@@ -1289,17 +1280,17 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>1388963</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>1240581</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>47306</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>2676850</v>
       </c>
       <c r="H15">
@@ -1326,17 +1317,17 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>759460</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>698241</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>24106</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1481807</v>
       </c>
       <c r="H16">
@@ -1363,17 +1354,17 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>470031</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>690005</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>48266</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="8">
         <v>1208302</v>
       </c>
       <c r="H17">
@@ -1400,17 +1391,17 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>761209</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>955182</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>33449</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>1749840</v>
       </c>
       <c r="H18">
@@ -1437,17 +1428,17 @@
       <c r="C19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>398474</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>594306</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>53396</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="8">
         <v>1046176</v>
       </c>
       <c r="H19">
@@ -1474,17 +1465,17 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="7">
         <v>431903</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>278198</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
         <v>710101</v>
       </c>
       <c r="H20">
@@ -1511,17 +1502,17 @@
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>1677490</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>762587</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>57875</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>2497952</v>
       </c>
       <c r="H21">
@@ -1548,17 +1539,17 @@
       <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>2245778</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>318461</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>538756</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="8">
         <v>3102995</v>
       </c>
       <c r="H22">
@@ -1585,17 +1576,17 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>2516640</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>2114293</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <f t="shared" si="0"/>
         <v>179757</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>4810690</v>
       </c>
       <c r="H23">
@@ -1622,17 +1613,17 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>1612480</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>1069015</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
         <v>121119</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>2802614</v>
       </c>
       <c r="H24">
@@ -1659,17 +1650,17 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>731805</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>527330</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>5612</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>1264747</v>
       </c>
       <c r="H25">
@@ -1696,17 +1687,17 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>1413016</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>1313018</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
         <v>95450</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>2821484</v>
       </c>
       <c r="H26">
@@ -1733,17 +1724,17 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>155930</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>308470</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <f t="shared" si="0"/>
         <v>16500</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>480900</v>
       </c>
       <c r="H27">
@@ -1770,17 +1761,17 @@
       <c r="C28" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>264885</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>510513</v>
       </c>
-      <c r="F28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>775398</v>
       </c>
       <c r="H28">
@@ -1807,17 +1798,17 @@
       <c r="C29" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>457320</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>383548</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <f t="shared" si="0"/>
         <v>67386</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="8">
         <v>908254</v>
       </c>
       <c r="H29">
@@ -1844,17 +1835,17 @@
       <c r="C30" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="7">
         <v>364767</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>294560</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <f t="shared" si="0"/>
         <v>15221</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>674548</v>
       </c>
       <c r="H30">
@@ -1881,17 +1872,17 @@
       <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>1911827</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>1461820</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <f t="shared" si="0"/>
         <v>64333</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="8">
         <v>3437980</v>
       </c>
       <c r="H31">
@@ -1918,17 +1909,17 @@
       <c r="C32" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>457135</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>321083</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <f t="shared" si="0"/>
         <v>36348</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <v>814566</v>
       </c>
       <c r="H32">
@@ -1955,17 +1946,17 @@
       <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>4006436</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>1800093</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <f t="shared" si="0"/>
         <v>1914974</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="8">
         <v>7721503</v>
       </c>
       <c r="H33">
@@ -1992,17 +1983,17 @@
       <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>2293971</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>1901517</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <f t="shared" ref="F34:F51" si="2">G34-D34-E34</f>
         <v>19605</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="8">
         <v>4215093</v>
       </c>
       <c r="H34">
@@ -2029,17 +2020,17 @@
       <c r="C35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>194577</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>119388</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>313965</v>
       </c>
       <c r="H35">
@@ -2066,17 +2057,17 @@
       <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>2752111</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>2491498</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <f t="shared" si="2"/>
         <v>130731</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="8">
         <v>5374340</v>
       </c>
       <c r="H36">
@@ -2103,17 +2094,17 @@
       <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>503614</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>802530</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <f t="shared" si="2"/>
         <v>30783</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="8">
         <v>1336927</v>
       </c>
       <c r="H37">
@@ -2140,17 +2131,17 @@
       <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>1036171</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>435920</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <f t="shared" si="2"/>
         <v>210418</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <v>1682509</v>
       </c>
       <c r="H38">
@@ -2177,17 +2168,17 @@
       <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>3209168</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>2520755</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <f t="shared" si="2"/>
         <v>57931</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="8">
         <v>5787854</v>
       </c>
       <c r="H39">
@@ -2214,17 +2205,17 @@
       <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>303670</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>118773</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <f t="shared" si="2"/>
         <v>15789</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>438232</v>
       </c>
       <c r="H40">
@@ -2251,17 +2242,17 @@
       <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>919529</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>939703</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <f t="shared" si="2"/>
         <v>14658</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="8">
         <v>1873890</v>
       </c>
       <c r="H41">
@@ -2288,17 +2279,17 @@
       <c r="C42" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>256041</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>122966</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="8">
         <v>379007</v>
       </c>
       <c r="H42">
@@ -2325,17 +2316,17 @@
       <c r="C43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>1195542</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>977677</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="8">
         <f t="shared" si="2"/>
         <v>128666</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="8">
         <v>2301885</v>
       </c>
       <c r="H43">
@@ -2362,17 +2353,17 @@
       <c r="C44" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>2979398</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>4203917</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="8">
         <f t="shared" si="2"/>
         <v>345307</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <v>7528622</v>
       </c>
       <c r="H44">
@@ -2399,17 +2390,17 @@
       <c r="C45" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>393761</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>503917</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="8">
         <f t="shared" si="2"/>
         <v>39161</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="8">
         <v>936839</v>
       </c>
       <c r="H45">
@@ -2436,17 +2427,17 @@
       <c r="C46" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>248203</v>
       </c>
-      <c r="E46" s="9">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
+      <c r="E46" s="8">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
         <f t="shared" si="2"/>
         <v>49948</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="8">
         <v>298151</v>
       </c>
       <c r="H46">
@@ -2473,17 +2464,17 @@
       <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>1852788</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>1590687</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="8">
         <f t="shared" si="2"/>
         <v>51880</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="8">
         <v>3495355</v>
       </c>
       <c r="H47">
@@ -2510,17 +2501,17 @@
       <c r="C48" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>1725316</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>1189147</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="8">
         <v>2914463</v>
       </c>
       <c r="H48">
@@ -2547,17 +2538,17 @@
       <c r="C49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>432075</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>213339</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="8">
         <v>645560</v>
       </c>
       <c r="H49">
@@ -2584,17 +2575,17 @@
       <c r="C50" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>1383536</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>1274987</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <f t="shared" si="2"/>
         <v>116651</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <v>2775174</v>
       </c>
       <c r="H50">
@@ -2621,17 +2612,17 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>106758</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>131244</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <f t="shared" si="2"/>
         <v>11573</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="8">
         <v>249575</v>
       </c>
       <c r="H51">

--- a/data/elections/not_imputed/Congressional Elections (2008).xlsx
+++ b/data/elections/not_imputed/Congressional Elections (2008).xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10104"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051419B6-47D1-E443-A182-CC1A8014DBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD73CE-4C1E-8046-96CC-9453F7F255DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="5760" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="500" windowWidth="22400" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Election Results by State" sheetId="3" r:id="rId1"/>
+    <sheet name="UPDATED" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Election Results by State'!$K$1:$K$51</definedName>
+    <definedName name="Congressional_Elections__2008" localSheetId="1">UPDATED!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +42,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{ABD0C90D-63D3-404A-912C-D9E04139C10F}" name="Congressional Elections (2008)" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="/Users/alecramsay/Documents/dev/MM2/data/elections/not_imputed/Congressional Elections (2008).csv" comma="1">
+      <textFields count="10">
+        <textField type="text"/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="113">
   <si>
     <t>Alabama</t>
   </si>
@@ -374,13 +397,19 @@
   </si>
   <si>
     <t>TOT_S</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Vote share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +428,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,10 +472,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -450,9 +487,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -465,6 +505,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Congressional Elections (2008)" connectionId="1" xr16:uid="{6C9DCF20-191B-A94C-8D89-7820B69F17D4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,13 +774,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -765,10 +809,10 @@
         <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>105</v>
@@ -777,10 +821,10 @@
         <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>109</v>
@@ -800,24 +844,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="7">
+        <v>1120903</v>
+      </c>
+      <c r="E2" s="8">
         <v>718367</v>
       </c>
-      <c r="E2" s="8">
-        <v>1120903</v>
-      </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F33" si="0">G2-D2-E2</f>
         <v>15998</v>
       </c>
       <c r="G2" s="8">
         <v>1855268</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I51" si="1">K2-H2-J2</f>
-        <v>5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -837,24 +879,22 @@
         <v>3</v>
       </c>
       <c r="D3" s="7">
+        <v>158939</v>
+      </c>
+      <c r="E3" s="8">
         <v>142560</v>
       </c>
-      <c r="E3" s="8">
-        <v>158939</v>
-      </c>
       <c r="F3" s="8">
-        <f t="shared" si="0"/>
         <v>15479</v>
       </c>
       <c r="G3" s="8">
         <v>316978</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -874,24 +914,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
+        <v>1021798</v>
+      </c>
+      <c r="E4" s="8">
         <v>1055305</v>
       </c>
-      <c r="E4" s="8">
-        <v>1021798</v>
-      </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
         <v>78591</v>
       </c>
       <c r="G4" s="8">
         <v>2155694</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
         <v>5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -911,24 +949,22 @@
         <v>7</v>
       </c>
       <c r="D5" s="7">
+        <v>215196</v>
+      </c>
+      <c r="E5" s="8">
         <v>415481</v>
       </c>
-      <c r="E5" s="8">
-        <v>215196</v>
-      </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
         <v>156516</v>
       </c>
       <c r="G5" s="8">
         <v>787193</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>3</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -948,24 +984,22 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
+        <v>4515925</v>
+      </c>
+      <c r="E6" s="8">
         <v>7380825</v>
       </c>
-      <c r="E6" s="8">
-        <v>4515925</v>
-      </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
         <v>425329</v>
       </c>
       <c r="G6" s="8">
         <v>12322079</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="1"/>
-        <v>19</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -985,24 +1019,22 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
+        <v>990836</v>
+      </c>
+      <c r="E7" s="8">
         <v>1259723</v>
       </c>
-      <c r="E7" s="8">
-        <v>990836</v>
-      </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
         <v>33287</v>
       </c>
       <c r="G7" s="8">
         <v>2283846</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <v>5</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1022,24 +1054,22 @@
         <v>13</v>
       </c>
       <c r="D8" s="7">
+        <v>504785</v>
+      </c>
+      <c r="E8" s="8">
         <v>908761</v>
       </c>
-      <c r="E8" s="8">
-        <v>504785</v>
-      </c>
       <c r="F8" s="8">
-        <f t="shared" si="0"/>
         <v>113853</v>
       </c>
       <c r="G8" s="8">
         <v>1527399</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>5</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1059,24 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D9" s="7">
+        <v>235437</v>
+      </c>
+      <c r="E9" s="8">
         <v>146434</v>
       </c>
-      <c r="E9" s="8">
-        <v>235437</v>
-      </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
         <v>3586</v>
       </c>
       <c r="G9" s="8">
         <v>385457</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1096,24 +1124,22 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
+        <v>3792167</v>
+      </c>
+      <c r="E10" s="8">
         <v>3434831</v>
       </c>
-      <c r="E10" s="8">
-        <v>3792167</v>
-      </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
         <v>194174</v>
       </c>
       <c r="G10" s="8">
         <v>7421172</v>
       </c>
       <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
         <v>10</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>15</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1133,24 +1159,22 @@
         <v>19</v>
       </c>
       <c r="D11" s="7">
+        <v>1796549</v>
+      </c>
+      <c r="E11" s="8">
         <v>1858090</v>
       </c>
-      <c r="E11" s="8">
-        <v>1796549</v>
-      </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="G11" s="8">
         <v>3654948</v>
       </c>
       <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
         <v>6</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1170,24 +1194,22 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
+        <v>82540</v>
+      </c>
+      <c r="E12" s="8">
         <v>319956</v>
       </c>
-      <c r="E12" s="8">
-        <v>82540</v>
-      </c>
       <c r="F12" s="8">
-        <f t="shared" si="0"/>
         <v>53568</v>
       </c>
       <c r="G12" s="8">
         <v>456064</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>2</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1207,13 +1229,12 @@
         <v>23</v>
       </c>
       <c r="D13" s="7">
+        <v>377464</v>
+      </c>
+      <c r="E13" s="8">
         <v>259776</v>
       </c>
-      <c r="E13" s="8">
-        <v>377464</v>
-      </c>
       <c r="F13" s="8">
-        <f t="shared" si="0"/>
         <v>612</v>
       </c>
       <c r="G13" s="8">
@@ -1223,7 +1244,6 @@
         <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13">
@@ -1244,24 +1264,22 @@
         <v>25</v>
       </c>
       <c r="D14" s="7">
+        <v>1961173</v>
+      </c>
+      <c r="E14" s="8">
         <v>3176203</v>
       </c>
-      <c r="E14" s="8">
-        <v>1961173</v>
-      </c>
       <c r="F14" s="8">
-        <f t="shared" si="0"/>
         <v>110819</v>
       </c>
       <c r="G14" s="8">
         <v>5248195</v>
       </c>
       <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
         <v>12</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1281,24 +1299,22 @@
         <v>27</v>
       </c>
       <c r="D15" s="7">
+        <v>1240581</v>
+      </c>
+      <c r="E15" s="8">
         <v>1388963</v>
       </c>
-      <c r="E15" s="8">
-        <v>1240581</v>
-      </c>
       <c r="F15" s="8">
-        <f t="shared" si="0"/>
         <v>47306</v>
       </c>
       <c r="G15" s="8">
         <v>2676850</v>
       </c>
       <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
         <v>5</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1318,24 +1334,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="7">
+        <v>698241</v>
+      </c>
+      <c r="E16" s="8">
         <v>759460</v>
       </c>
-      <c r="E16" s="8">
-        <v>698241</v>
-      </c>
       <c r="F16" s="8">
-        <f t="shared" si="0"/>
         <v>24106</v>
       </c>
       <c r="G16" s="8">
         <v>1481807</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>3</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1355,24 +1369,22 @@
         <v>31</v>
       </c>
       <c r="D17" s="7">
+        <v>690005</v>
+      </c>
+      <c r="E17" s="8">
         <v>470031</v>
       </c>
-      <c r="E17" s="8">
-        <v>690005</v>
-      </c>
       <c r="F17" s="8">
-        <f t="shared" si="0"/>
         <v>48266</v>
       </c>
       <c r="G17" s="8">
         <v>1208302</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1392,24 +1404,22 @@
         <v>33</v>
       </c>
       <c r="D18" s="7">
+        <v>955182</v>
+      </c>
+      <c r="E18" s="8">
         <v>761209</v>
       </c>
-      <c r="E18" s="8">
-        <v>955182</v>
-      </c>
       <c r="F18" s="8">
-        <f t="shared" si="0"/>
         <v>33449</v>
       </c>
       <c r="G18" s="8">
         <v>1749840</v>
       </c>
       <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
         <v>2</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1429,24 +1439,22 @@
         <v>35</v>
       </c>
       <c r="D19" s="7">
+        <v>594306</v>
+      </c>
+      <c r="E19" s="8">
         <v>398474</v>
       </c>
-      <c r="E19" s="8">
-        <v>594306</v>
-      </c>
       <c r="F19" s="8">
-        <f t="shared" si="0"/>
         <v>53396</v>
       </c>
       <c r="G19" s="8">
         <v>1046176</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1466,24 +1474,22 @@
         <v>37</v>
       </c>
       <c r="D20" s="7">
+        <v>278198</v>
+      </c>
+      <c r="E20" s="8">
         <v>431903</v>
       </c>
-      <c r="E20" s="8">
-        <v>278198</v>
-      </c>
       <c r="F20" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="8">
         <v>710101</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>2</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1503,24 +1509,22 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
+        <v>762587</v>
+      </c>
+      <c r="E21" s="8">
         <v>1677490</v>
       </c>
-      <c r="E21" s="8">
-        <v>762587</v>
-      </c>
       <c r="F21" s="8">
-        <f t="shared" si="0"/>
         <v>57875</v>
       </c>
       <c r="G21" s="8">
         <v>2497952</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>7</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1540,24 +1544,22 @@
         <v>41</v>
       </c>
       <c r="D22" s="7">
+        <v>318461</v>
+      </c>
+      <c r="E22" s="8">
         <v>2245778</v>
       </c>
-      <c r="E22" s="8">
-        <v>318461</v>
-      </c>
       <c r="F22" s="8">
-        <f t="shared" si="0"/>
         <v>538756</v>
       </c>
       <c r="G22" s="8">
         <v>3102995</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>10</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1577,24 +1579,22 @@
         <v>43</v>
       </c>
       <c r="D23" s="7">
+        <v>2114293</v>
+      </c>
+      <c r="E23" s="8">
         <v>2516640</v>
       </c>
-      <c r="E23" s="8">
-        <v>2114293</v>
-      </c>
       <c r="F23" s="8">
-        <f t="shared" si="0"/>
         <v>179757</v>
       </c>
       <c r="G23" s="8">
         <v>4810690</v>
       </c>
       <c r="H23">
+        <v>7</v>
+      </c>
+      <c r="I23">
         <v>8</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1614,24 +1614,22 @@
         <v>45</v>
       </c>
       <c r="D24" s="7">
+        <v>1069015</v>
+      </c>
+      <c r="E24" s="8">
         <v>1612480</v>
       </c>
-      <c r="E24" s="8">
-        <v>1069015</v>
-      </c>
       <c r="F24" s="8">
-        <f t="shared" si="0"/>
         <v>121119</v>
       </c>
       <c r="G24" s="8">
         <v>2802614</v>
       </c>
       <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
         <v>5</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1651,24 +1649,22 @@
         <v>47</v>
       </c>
       <c r="D25" s="7">
+        <v>527330</v>
+      </c>
+      <c r="E25" s="8">
         <v>731805</v>
       </c>
-      <c r="E25" s="8">
-        <v>527330</v>
-      </c>
       <c r="F25" s="8">
-        <f t="shared" si="0"/>
         <v>5612</v>
       </c>
       <c r="G25" s="8">
         <v>1264747</v>
       </c>
       <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>3</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,24 +1684,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="7">
+        <v>1313018</v>
+      </c>
+      <c r="E26" s="8">
         <v>1413016</v>
       </c>
-      <c r="E26" s="8">
-        <v>1313018</v>
-      </c>
       <c r="F26" s="8">
-        <f t="shared" si="0"/>
         <v>95450</v>
       </c>
       <c r="G26" s="8">
         <v>2821484</v>
       </c>
       <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
         <v>4</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1725,24 +1719,22 @@
         <v>51</v>
       </c>
       <c r="D27" s="7">
+        <v>308470</v>
+      </c>
+      <c r="E27" s="8">
         <v>155930</v>
       </c>
-      <c r="E27" s="8">
-        <v>308470</v>
-      </c>
       <c r="F27" s="8">
-        <f t="shared" si="0"/>
         <v>16500</v>
       </c>
       <c r="G27" s="8">
         <v>480900</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1762,24 +1754,22 @@
         <v>53</v>
       </c>
       <c r="D28" s="7">
+        <v>510513</v>
+      </c>
+      <c r="E28" s="8">
         <v>264885</v>
       </c>
-      <c r="E28" s="8">
-        <v>510513</v>
-      </c>
       <c r="F28" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="8">
         <v>775398</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1799,24 +1789,22 @@
         <v>55</v>
       </c>
       <c r="D29" s="7">
+        <v>383548</v>
+      </c>
+      <c r="E29" s="8">
         <v>457320</v>
       </c>
-      <c r="E29" s="8">
-        <v>383548</v>
-      </c>
       <c r="F29" s="8">
-        <f t="shared" si="0"/>
         <v>67386</v>
       </c>
       <c r="G29" s="8">
         <v>908254</v>
       </c>
       <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>2</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1836,24 +1824,22 @@
         <v>57</v>
       </c>
       <c r="D30" s="7">
+        <v>294560</v>
+      </c>
+      <c r="E30" s="8">
         <v>364767</v>
       </c>
-      <c r="E30" s="8">
-        <v>294560</v>
-      </c>
       <c r="F30" s="8">
-        <f t="shared" si="0"/>
         <v>15221</v>
       </c>
       <c r="G30" s="8">
         <v>674548</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>2</v>
-      </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1873,24 +1859,22 @@
         <v>59</v>
       </c>
       <c r="D31" s="7">
+        <v>1461820</v>
+      </c>
+      <c r="E31" s="8">
         <v>1911827</v>
       </c>
-      <c r="E31" s="8">
-        <v>1461820</v>
-      </c>
       <c r="F31" s="8">
-        <f t="shared" si="0"/>
         <v>64333</v>
       </c>
       <c r="G31" s="8">
         <v>3437980</v>
       </c>
       <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
         <v>8</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1910,24 +1894,22 @@
         <v>61</v>
       </c>
       <c r="D32" s="7">
+        <v>321083</v>
+      </c>
+      <c r="E32" s="8">
         <v>457135</v>
       </c>
-      <c r="E32" s="8">
-        <v>321083</v>
-      </c>
       <c r="F32" s="8">
-        <f t="shared" si="0"/>
         <v>36348</v>
       </c>
       <c r="G32" s="8">
         <v>814566</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>3</v>
-      </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1947,24 +1929,22 @@
         <v>63</v>
       </c>
       <c r="D33" s="7">
+        <v>1800093</v>
+      </c>
+      <c r="E33" s="8">
         <v>4006436</v>
       </c>
-      <c r="E33" s="8">
-        <v>1800093</v>
-      </c>
       <c r="F33" s="8">
-        <f t="shared" si="0"/>
         <v>1914974</v>
       </c>
       <c r="G33" s="8">
         <v>7721503</v>
       </c>
       <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
         <v>26</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1984,24 +1964,22 @@
         <v>65</v>
       </c>
       <c r="D34" s="7">
+        <v>1901517</v>
+      </c>
+      <c r="E34" s="8">
         <v>2293971</v>
       </c>
-      <c r="E34" s="8">
-        <v>1901517</v>
-      </c>
       <c r="F34" s="8">
-        <f t="shared" ref="F34:F51" si="2">G34-D34-E34</f>
         <v>19605</v>
       </c>
       <c r="G34" s="8">
         <v>4215093</v>
       </c>
       <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
         <v>8</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2021,24 +1999,22 @@
         <v>67</v>
       </c>
       <c r="D35" s="7">
+        <v>119388</v>
+      </c>
+      <c r="E35" s="8">
         <v>194577</v>
       </c>
-      <c r="E35" s="8">
-        <v>119388</v>
-      </c>
       <c r="F35" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="8">
         <v>313965</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2058,24 +2034,22 @@
         <v>69</v>
       </c>
       <c r="D36" s="7">
+        <v>2491498</v>
+      </c>
+      <c r="E36" s="8">
         <v>2752111</v>
       </c>
-      <c r="E36" s="8">
-        <v>2491498</v>
-      </c>
       <c r="F36" s="8">
-        <f t="shared" si="2"/>
         <v>130731</v>
       </c>
       <c r="G36" s="8">
         <v>5374340</v>
       </c>
       <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36">
         <v>10</v>
-      </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>8</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2095,24 +2069,22 @@
         <v>71</v>
       </c>
       <c r="D37" s="7">
+        <v>802530</v>
+      </c>
+      <c r="E37" s="8">
         <v>503614</v>
       </c>
-      <c r="E37" s="8">
-        <v>802530</v>
-      </c>
       <c r="F37" s="8">
-        <f t="shared" si="2"/>
         <v>30783</v>
       </c>
       <c r="G37" s="8">
         <v>1336927</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2132,24 +2104,22 @@
         <v>73</v>
       </c>
       <c r="D38" s="7">
+        <v>435920</v>
+      </c>
+      <c r="E38" s="8">
         <v>1036171</v>
       </c>
-      <c r="E38" s="8">
-        <v>435920</v>
-      </c>
       <c r="F38" s="8">
-        <f t="shared" si="2"/>
         <v>210418</v>
       </c>
       <c r="G38" s="8">
         <v>1682509</v>
       </c>
       <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
         <v>4</v>
-      </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2169,24 +2139,22 @@
         <v>75</v>
       </c>
       <c r="D39" s="7">
+        <v>2520755</v>
+      </c>
+      <c r="E39" s="8">
         <v>3209168</v>
       </c>
-      <c r="E39" s="8">
-        <v>2520755</v>
-      </c>
       <c r="F39" s="8">
-        <f t="shared" si="2"/>
         <v>57931</v>
       </c>
       <c r="G39" s="8">
         <v>5787854</v>
       </c>
       <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
         <v>12</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>7</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2206,24 +2174,22 @@
         <v>77</v>
       </c>
       <c r="D40" s="7">
+        <v>118773</v>
+      </c>
+      <c r="E40" s="8">
         <v>303670</v>
       </c>
-      <c r="E40" s="8">
-        <v>118773</v>
-      </c>
       <c r="F40" s="8">
-        <f t="shared" si="2"/>
         <v>15789</v>
       </c>
       <c r="G40" s="8">
         <v>438232</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>2</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2243,24 +2209,22 @@
         <v>79</v>
       </c>
       <c r="D41" s="7">
+        <v>939703</v>
+      </c>
+      <c r="E41" s="8">
         <v>919529</v>
       </c>
-      <c r="E41" s="8">
-        <v>939703</v>
-      </c>
       <c r="F41" s="8">
-        <f t="shared" si="2"/>
         <v>14658</v>
       </c>
       <c r="G41" s="8">
         <v>1873890</v>
       </c>
       <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
         <v>2</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2280,24 +2244,22 @@
         <v>81</v>
       </c>
       <c r="D42" s="7">
+        <v>122966</v>
+      </c>
+      <c r="E42" s="8">
         <v>256041</v>
       </c>
-      <c r="E42" s="8">
-        <v>122966</v>
-      </c>
       <c r="F42" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G42" s="8">
         <v>379007</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2317,24 +2279,22 @@
         <v>83</v>
       </c>
       <c r="D43" s="7">
+        <v>977677</v>
+      </c>
+      <c r="E43" s="8">
         <v>1195542</v>
       </c>
-      <c r="E43" s="8">
-        <v>977677</v>
-      </c>
       <c r="F43" s="8">
-        <f t="shared" si="2"/>
         <v>128666</v>
       </c>
       <c r="G43" s="8">
         <v>2301885</v>
       </c>
       <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43">
         <v>5</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>4</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2354,24 +2314,22 @@
         <v>85</v>
       </c>
       <c r="D44" s="7">
+        <v>4203917</v>
+      </c>
+      <c r="E44" s="8">
         <v>2979398</v>
       </c>
-      <c r="E44" s="8">
-        <v>4203917</v>
-      </c>
       <c r="F44" s="8">
-        <f t="shared" si="2"/>
         <v>345307</v>
       </c>
       <c r="G44" s="8">
         <v>7528622</v>
       </c>
       <c r="H44">
+        <v>20</v>
+      </c>
+      <c r="I44">
         <v>12</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>20</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2391,24 +2349,22 @@
         <v>87</v>
       </c>
       <c r="D45" s="7">
+        <v>503917</v>
+      </c>
+      <c r="E45" s="8">
         <v>393761</v>
       </c>
-      <c r="E45" s="8">
-        <v>503917</v>
-      </c>
       <c r="F45" s="8">
-        <f t="shared" si="2"/>
         <v>39161</v>
       </c>
       <c r="G45" s="8">
         <v>936839</v>
       </c>
       <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
         <v>2</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2428,24 +2384,22 @@
         <v>89</v>
       </c>
       <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
         <v>248203</v>
       </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
       <c r="F46" s="8">
-        <f t="shared" si="2"/>
         <v>49948</v>
       </c>
       <c r="G46" s="8">
         <v>298151</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2465,24 +2419,22 @@
         <v>91</v>
       </c>
       <c r="D47" s="7">
+        <v>1590687</v>
+      </c>
+      <c r="E47" s="8">
         <v>1852788</v>
       </c>
-      <c r="E47" s="8">
-        <v>1590687</v>
-      </c>
       <c r="F47" s="8">
-        <f t="shared" si="2"/>
         <v>51880</v>
       </c>
       <c r="G47" s="8">
         <v>3495355</v>
       </c>
       <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
         <v>6</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="1"/>
-        <v>5</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2502,24 +2454,22 @@
         <v>93</v>
       </c>
       <c r="D48" s="7">
+        <v>1189147</v>
+      </c>
+      <c r="E48" s="8">
         <v>1725316</v>
       </c>
-      <c r="E48" s="8">
-        <v>1189147</v>
-      </c>
       <c r="F48" s="8">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="8">
         <v>2914463</v>
       </c>
       <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
         <v>6</v>
-      </c>
-      <c r="I48">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2539,24 +2489,22 @@
         <v>95</v>
       </c>
       <c r="D49" s="7">
+        <v>213339</v>
+      </c>
+      <c r="E49" s="8">
         <v>432075</v>
       </c>
-      <c r="E49" s="8">
-        <v>213339</v>
-      </c>
       <c r="F49" s="8">
-        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="G49" s="8">
         <v>645560</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
         <v>2</v>
-      </c>
-      <c r="I49">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2576,24 +2524,22 @@
         <v>97</v>
       </c>
       <c r="D50" s="7">
+        <v>1274987</v>
+      </c>
+      <c r="E50" s="8">
         <v>1383536</v>
       </c>
-      <c r="E50" s="8">
-        <v>1274987</v>
-      </c>
       <c r="F50" s="8">
-        <f t="shared" si="2"/>
         <v>116651</v>
       </c>
       <c r="G50" s="8">
         <v>2775174</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>5</v>
-      </c>
-      <c r="I50">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2613,29 +2559,1693 @@
         <v>99</v>
       </c>
       <c r="D51" s="7">
+        <v>131244</v>
+      </c>
+      <c r="E51" s="8">
         <v>106758</v>
       </c>
-      <c r="E51" s="8">
-        <v>131244</v>
-      </c>
       <c r="F51" s="8">
-        <f t="shared" si="2"/>
         <v>11573</v>
       </c>
       <c r="G51" s="8">
         <v>249575</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="11">
+        <f>SUM(E2:E51)/SUM(D2:E51)</f>
+        <v>0.55535343389654479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039EBA2-227C-2F4C-8DA1-666BAE15AE6C}">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1120903</v>
+      </c>
+      <c r="D2">
+        <v>718367</v>
+      </c>
+      <c r="E2">
+        <v>15998</v>
+      </c>
+      <c r="F2">
+        <v>1855268</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>158939</v>
+      </c>
+      <c r="D3">
+        <v>142560</v>
+      </c>
+      <c r="E3">
+        <v>15479</v>
+      </c>
+      <c r="F3">
+        <v>316978</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1021798</v>
+      </c>
+      <c r="D4">
+        <v>1055305</v>
+      </c>
+      <c r="E4">
+        <v>78591</v>
+      </c>
+      <c r="F4">
+        <v>2155694</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>215196</v>
+      </c>
+      <c r="D5">
+        <v>415481</v>
+      </c>
+      <c r="E5">
+        <v>156516</v>
+      </c>
+      <c r="F5">
+        <v>787193</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4515925</v>
+      </c>
+      <c r="D6">
+        <v>7380825</v>
+      </c>
+      <c r="E6">
+        <v>425329</v>
+      </c>
+      <c r="F6">
+        <v>12322079</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>990836</v>
+      </c>
+      <c r="D7">
+        <v>1259723</v>
+      </c>
+      <c r="E7">
+        <v>33287</v>
+      </c>
+      <c r="F7">
+        <v>2283846</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>504785</v>
+      </c>
+      <c r="D8">
+        <v>908761</v>
+      </c>
+      <c r="E8">
+        <v>113853</v>
+      </c>
+      <c r="F8">
+        <v>1527399</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>235437</v>
+      </c>
+      <c r="D9">
+        <v>146434</v>
+      </c>
+      <c r="E9">
+        <v>3586</v>
+      </c>
+      <c r="F9">
+        <v>385457</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>3792167</v>
+      </c>
+      <c r="D10">
+        <v>3434831</v>
+      </c>
+      <c r="E10">
+        <v>194174</v>
+      </c>
+      <c r="F10">
+        <v>7421172</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>1796549</v>
+      </c>
+      <c r="D11">
+        <v>1858090</v>
+      </c>
+      <c r="E11">
+        <v>309</v>
+      </c>
+      <c r="F11">
+        <v>3654948</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>82540</v>
+      </c>
+      <c r="D12">
+        <v>319956</v>
+      </c>
+      <c r="E12">
+        <v>53568</v>
+      </c>
+      <c r="F12">
+        <v>456064</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>377464</v>
+      </c>
+      <c r="D13">
+        <v>259776</v>
+      </c>
+      <c r="E13">
+        <v>612</v>
+      </c>
+      <c r="F13">
+        <v>637852</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1961173</v>
+      </c>
+      <c r="D14">
+        <v>3176203</v>
+      </c>
+      <c r="E14">
+        <v>110819</v>
+      </c>
+      <c r="F14">
+        <v>5248195</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>1240581</v>
+      </c>
+      <c r="D15">
+        <v>1388963</v>
+      </c>
+      <c r="E15">
+        <v>47306</v>
+      </c>
+      <c r="F15">
+        <v>2676850</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>698241</v>
+      </c>
+      <c r="D16">
+        <v>759460</v>
+      </c>
+      <c r="E16">
+        <v>24106</v>
+      </c>
+      <c r="F16">
+        <v>1481807</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>690005</v>
+      </c>
+      <c r="D17">
+        <v>470031</v>
+      </c>
+      <c r="E17">
+        <v>48266</v>
+      </c>
+      <c r="F17">
+        <v>1208302</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>955182</v>
+      </c>
+      <c r="D18">
+        <v>761209</v>
+      </c>
+      <c r="E18">
+        <v>33449</v>
+      </c>
+      <c r="F18">
+        <v>1749840</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>594306</v>
+      </c>
+      <c r="D19">
+        <v>398474</v>
+      </c>
+      <c r="E19">
+        <v>53396</v>
+      </c>
+      <c r="F19">
+        <v>1046176</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>278198</v>
+      </c>
+      <c r="D20">
+        <v>431903</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>710101</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>762587</v>
+      </c>
+      <c r="D21">
+        <v>1677490</v>
+      </c>
+      <c r="E21">
+        <v>57875</v>
+      </c>
+      <c r="F21">
+        <v>2497952</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>318461</v>
+      </c>
+      <c r="D22">
+        <v>2245778</v>
+      </c>
+      <c r="E22">
+        <v>538756</v>
+      </c>
+      <c r="F22">
+        <v>3102995</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>2114293</v>
+      </c>
+      <c r="D23">
+        <v>2516640</v>
+      </c>
+      <c r="E23">
+        <v>179757</v>
+      </c>
+      <c r="F23">
+        <v>4810690</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>1069015</v>
+      </c>
+      <c r="D24">
+        <v>1612480</v>
+      </c>
+      <c r="E24">
+        <v>121119</v>
+      </c>
+      <c r="F24">
+        <v>2802614</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>527330</v>
+      </c>
+      <c r="D25">
+        <v>731805</v>
+      </c>
+      <c r="E25">
+        <v>5612</v>
+      </c>
+      <c r="F25">
+        <v>1264747</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26">
+        <v>1313018</v>
+      </c>
+      <c r="D26">
+        <v>1413016</v>
+      </c>
+      <c r="E26">
+        <v>95450</v>
+      </c>
+      <c r="F26">
+        <v>2821484</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>308470</v>
+      </c>
+      <c r="D27">
+        <v>155930</v>
+      </c>
+      <c r="E27">
+        <v>16500</v>
+      </c>
+      <c r="F27">
+        <v>480900</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>510513</v>
+      </c>
+      <c r="D28">
+        <v>264885</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>775398</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>383548</v>
+      </c>
+      <c r="D29">
+        <v>457320</v>
+      </c>
+      <c r="E29">
+        <v>67386</v>
+      </c>
+      <c r="F29">
+        <v>908254</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>294560</v>
+      </c>
+      <c r="D30">
+        <v>364767</v>
+      </c>
+      <c r="E30">
+        <v>15221</v>
+      </c>
+      <c r="F30">
+        <v>674548</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>1461820</v>
+      </c>
+      <c r="D31">
+        <v>1911827</v>
+      </c>
+      <c r="E31">
+        <v>64333</v>
+      </c>
+      <c r="F31">
+        <v>3437980</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32">
+        <v>321083</v>
+      </c>
+      <c r="D32">
+        <v>457135</v>
+      </c>
+      <c r="E32">
+        <v>36348</v>
+      </c>
+      <c r="F32">
+        <v>814566</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33">
+        <v>1800093</v>
+      </c>
+      <c r="D33">
+        <v>4006436</v>
+      </c>
+      <c r="E33">
+        <v>1914974</v>
+      </c>
+      <c r="F33">
+        <v>7721503</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>26</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>1901517</v>
+      </c>
+      <c r="D34">
+        <v>2293971</v>
+      </c>
+      <c r="E34">
+        <v>19605</v>
+      </c>
+      <c r="F34">
+        <v>4215093</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>119388</v>
+      </c>
+      <c r="D35">
+        <v>194577</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>313965</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>2491498</v>
+      </c>
+      <c r="D36">
+        <v>2752111</v>
+      </c>
+      <c r="E36">
+        <v>130731</v>
+      </c>
+      <c r="F36">
+        <v>5374340</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>802530</v>
+      </c>
+      <c r="D37">
+        <v>503614</v>
+      </c>
+      <c r="E37">
+        <v>30783</v>
+      </c>
+      <c r="F37">
+        <v>1336927</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>435920</v>
+      </c>
+      <c r="D38">
+        <v>1036171</v>
+      </c>
+      <c r="E38">
+        <v>210418</v>
+      </c>
+      <c r="F38">
+        <v>1682509</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>2520755</v>
+      </c>
+      <c r="D39">
+        <v>3209168</v>
+      </c>
+      <c r="E39">
+        <v>57931</v>
+      </c>
+      <c r="F39">
+        <v>5787854</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <v>118773</v>
+      </c>
+      <c r="D40">
+        <v>303670</v>
+      </c>
+      <c r="E40">
+        <v>15789</v>
+      </c>
+      <c r="F40">
+        <v>438232</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41">
+        <v>939703</v>
+      </c>
+      <c r="D41">
+        <v>919529</v>
+      </c>
+      <c r="E41">
+        <v>14658</v>
+      </c>
+      <c r="F41">
+        <v>1873890</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <v>122966</v>
+      </c>
+      <c r="D42">
+        <v>256041</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>379007</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
+        <v>977677</v>
+      </c>
+      <c r="D43">
+        <v>1195542</v>
+      </c>
+      <c r="E43">
+        <v>128666</v>
+      </c>
+      <c r="F43">
+        <v>2301885</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44">
+        <v>4203917</v>
+      </c>
+      <c r="D44">
+        <v>2979398</v>
+      </c>
+      <c r="E44">
+        <v>345307</v>
+      </c>
+      <c r="F44">
+        <v>7528622</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45">
+        <v>503917</v>
+      </c>
+      <c r="D45">
+        <v>393761</v>
+      </c>
+      <c r="E45">
+        <v>39161</v>
+      </c>
+      <c r="F45">
+        <v>936839</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>248203</v>
+      </c>
+      <c r="E46">
+        <v>49948</v>
+      </c>
+      <c r="F46">
+        <v>298151</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47">
+        <v>1590687</v>
+      </c>
+      <c r="D47">
+        <v>1852788</v>
+      </c>
+      <c r="E47">
+        <v>51880</v>
+      </c>
+      <c r="F47">
+        <v>3495355</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48">
+        <v>1189147</v>
+      </c>
+      <c r="D48">
+        <v>1725316</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2914463</v>
+      </c>
+      <c r="G48">
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49">
+        <v>213339</v>
+      </c>
+      <c r="D49">
+        <v>432075</v>
+      </c>
+      <c r="E49">
+        <v>146</v>
+      </c>
+      <c r="F49">
+        <v>645560</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50">
+        <v>1274987</v>
+      </c>
+      <c r="D50">
+        <v>1383536</v>
+      </c>
+      <c r="E50">
+        <v>116651</v>
+      </c>
+      <c r="F50">
+        <v>2775174</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51">
+        <v>131244</v>
+      </c>
+      <c r="D51">
+        <v>106758</v>
+      </c>
+      <c r="E51">
+        <v>11573</v>
+      </c>
+      <c r="F51">
+        <v>249575</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
         <v>1</v>
       </c>
     </row>
